--- a/data/TC012.xlsx
+++ b/data/TC012.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>UserName</t>
   </si>
@@ -30,10 +30,22 @@
     <t>prasanth.sundaresan@landsend.com.qa</t>
   </si>
   <si>
-    <t>Ppm@2018</t>
-  </si>
-  <si>
     <t>Prasanth Sundaresan</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>Delta UAT Testing</t>
+  </si>
+  <si>
+    <t>Erode@123</t>
+  </si>
+  <si>
+    <t>data1</t>
+  </si>
+  <si>
+    <t>5/3/2018</t>
   </si>
 </sst>
 </file>
@@ -71,7 +83,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -94,16 +106,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -406,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,9 +442,11 @@
     <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,16 +456,28 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
